--- a/comparing May and June offsets.xlsx
+++ b/comparing May and June offsets.xlsx
@@ -15,7 +15,7 @@
     <sheet name="offsets_May2019" sheetId="1" r:id="rId1"/>
     <sheet name="ESRI_MAPINFO_SHEET" sheetId="2" state="veryHidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -665,9 +665,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -713,28 +716,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1104,16 +1086,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
@@ -1128,7 +1117,7 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
@@ -1152,9 +1141,9 @@
         <v>-5.0281135419999998</v>
       </c>
       <c r="E2">
-        <v>-5.0281135419999998</v>
-      </c>
-      <c r="F2">
+        <v>-5.0281135421299998</v>
+      </c>
+      <c r="F2" s="2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
@@ -1175,9 +1164,9 @@
         <v>-3.9304489540000001</v>
       </c>
       <c r="E3">
-        <v>-3.9304489540000001</v>
-      </c>
-      <c r="F3">
+        <v>-3.9304489544600001</v>
+      </c>
+      <c r="F3" s="2">
         <v>0</v>
       </c>
       <c r="H3" t="s">
@@ -1198,9 +1187,9 @@
         <v>-2.6060122400000001</v>
       </c>
       <c r="E4">
-        <v>-2.6060122400000001</v>
-      </c>
-      <c r="F4">
+        <v>-2.6060122402200001</v>
+      </c>
+      <c r="F4" s="2">
         <v>0</v>
       </c>
       <c r="H4" t="s">
@@ -1221,9 +1210,9 @@
         <v>-2.669673376</v>
       </c>
       <c r="E5">
-        <v>-2.669673376</v>
-      </c>
-      <c r="F5">
+        <v>-2.66967337585</v>
+      </c>
+      <c r="F5" s="2">
         <v>0</v>
       </c>
       <c r="H5" t="s">
@@ -1244,9 +1233,9 @@
         <v>-6.4295049049999999</v>
       </c>
       <c r="E6">
-        <v>-6.4295049049999999</v>
-      </c>
-      <c r="F6">
+        <v>-6.42950490525</v>
+      </c>
+      <c r="F6" s="2">
         <v>0</v>
       </c>
       <c r="H6" t="s">
@@ -1267,38 +1256,38 @@
         <v>-1.1112233899999999</v>
       </c>
       <c r="E7">
-        <v>-1.1112233899999999</v>
-      </c>
-      <c r="F7">
+        <v>-1.11122339035</v>
+      </c>
+      <c r="F7" s="2">
         <v>0</v>
       </c>
       <c r="H7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>-1.2598438270000001</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>-0.1</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>-1.3598438269999999</v>
       </c>
-      <c r="E8">
-        <v>-1.336877973</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="1">
+        <v>-1.3368779727</v>
+      </c>
+      <c r="F8" s="3">
         <v>-0.02</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1316,9 +1305,9 @@
         <v>-2.0850409170000002</v>
       </c>
       <c r="E9">
-        <v>-2.0850409170000002</v>
-      </c>
-      <c r="F9">
+        <v>-2.0850409167300001</v>
+      </c>
+      <c r="F9" s="2">
         <v>0</v>
       </c>
       <c r="H9" t="s">
@@ -1339,38 +1328,38 @@
         <v>-3.4514462520000002</v>
       </c>
       <c r="E10">
-        <v>-3.4514462520000002</v>
-      </c>
-      <c r="F10">
+        <v>-3.4514462518400002</v>
+      </c>
+      <c r="F10" s="2">
         <v>0</v>
       </c>
       <c r="H10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>-4.1994773920000004</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>0.1</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>-4.0994773919999998</v>
       </c>
-      <c r="E11">
-        <v>-4.106039075</v>
-      </c>
-      <c r="F11">
+      <c r="E11" s="1">
+        <v>-4.10603907513</v>
+      </c>
+      <c r="F11" s="3">
         <v>0.01</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1388,9 +1377,9 @@
         <v>-5.609767293</v>
       </c>
       <c r="E12">
-        <v>-5.609767293</v>
-      </c>
-      <c r="F12">
+        <v>-5.60976729272</v>
+      </c>
+      <c r="F12" s="2">
         <v>0</v>
       </c>
       <c r="H12" t="s">
@@ -1411,38 +1400,38 @@
         <v>-3.1003958370000002</v>
       </c>
       <c r="E13">
-        <v>-3.1003958370000002</v>
-      </c>
-      <c r="F13">
+        <v>-3.1003958373999998</v>
+      </c>
+      <c r="F13" s="2">
         <v>0</v>
       </c>
       <c r="H13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>-7.7299243889999998</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>1.63</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>-6.0999243889999999</v>
       </c>
-      <c r="E14">
-        <v>-6.0763023289999998</v>
-      </c>
-      <c r="F14">
+      <c r="E14" s="1">
+        <v>-6.0763023292899998</v>
+      </c>
+      <c r="F14" s="3">
         <v>-0.02</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1460,9 +1449,9 @@
         <v>-3.0240170609999999</v>
       </c>
       <c r="E15">
-        <v>-3.0240170609999999</v>
-      </c>
-      <c r="F15">
+        <v>-3.0240170608299999</v>
+      </c>
+      <c r="F15" s="2">
         <v>0</v>
       </c>
       <c r="H15" t="s">
@@ -1483,35 +1472,35 @@
         <v>-2.1234916429999999</v>
       </c>
       <c r="E16">
-        <v>-2.1234916429999999</v>
-      </c>
-      <c r="F16">
+        <v>-2.1234916427799999</v>
+      </c>
+      <c r="F16" s="2">
         <v>0</v>
       </c>
       <c r="H16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>-1.758531303</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>-1.758531303</v>
       </c>
-      <c r="E17">
-        <v>-1.751969705</v>
-      </c>
-      <c r="F17">
+      <c r="E17" s="1">
+        <v>-1.7519697051200001</v>
+      </c>
+      <c r="F17" s="3">
         <v>-0.01</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1526,9 +1515,9 @@
         <v>-2.5328099860000002</v>
       </c>
       <c r="E18">
-        <v>-2.5328099860000002</v>
-      </c>
-      <c r="F18">
+        <v>-2.5328099863500002</v>
+      </c>
+      <c r="F18" s="2">
         <v>0</v>
       </c>
       <c r="H18" t="s">
@@ -1546,9 +1535,9 @@
         <v>-1.8326781809999999</v>
       </c>
       <c r="E19">
-        <v>-1.8326781809999999</v>
-      </c>
-      <c r="F19">
+        <v>-1.8326781805100001</v>
+      </c>
+      <c r="F19" s="2">
         <v>0</v>
       </c>
       <c r="H19" t="s">
@@ -1569,9 +1558,9 @@
         <v>-3.530185881</v>
       </c>
       <c r="E20">
-        <v>-3.530185881</v>
-      </c>
-      <c r="F20">
+        <v>-3.53018588136</v>
+      </c>
+      <c r="F20" s="2">
         <v>0</v>
       </c>
       <c r="H20" t="s">
@@ -1579,7 +1568,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B21">
@@ -1591,11 +1580,8 @@
       <c r="D21">
         <v>-4.6017739019999997</v>
       </c>
-      <c r="E21">
-        <v>-3.8188999269999999</v>
-      </c>
-      <c r="F21">
-        <v>-0.78</v>
+      <c r="F21" s="2">
+        <v>0</v>
       </c>
       <c r="G21" t="s">
         <v>50</v>
@@ -1605,7 +1591,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B22">
@@ -1615,10 +1601,11 @@
         <v>-3.8188999269999999</v>
       </c>
       <c r="E22">
-        <v>-3.0905529879999998</v>
-      </c>
-      <c r="F22">
-        <v>-0.73</v>
+        <v>-3.8188999267699999</v>
+      </c>
+      <c r="F22" s="2">
+        <f>D22-E22</f>
+        <v>-2.3000001903028533E-10</v>
       </c>
       <c r="G22" t="s">
         <v>51</v>
@@ -1628,7 +1615,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B23">
@@ -1638,10 +1625,11 @@
         <v>-3.0905529879999998</v>
       </c>
       <c r="E23">
-        <v>-4.731894048</v>
-      </c>
-      <c r="F23">
-        <v>1.64</v>
+        <v>-3.0905529881899998</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" ref="F23:F41" si="0">D23-E23</f>
+        <v>1.9000001572067049E-10</v>
       </c>
       <c r="G23" t="s">
         <v>51</v>
@@ -1651,7 +1639,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B24">
@@ -1664,10 +1652,11 @@
         <v>-4.731894048</v>
       </c>
       <c r="E24">
-        <v>-5.8070898990000002</v>
-      </c>
-      <c r="F24">
-        <v>1.08</v>
+        <v>-4.73189404764</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="0"/>
+        <v>-3.6000002978653356E-10</v>
       </c>
       <c r="G24" t="s">
         <v>51</v>
@@ -1677,7 +1666,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B25">
@@ -1687,10 +1676,11 @@
         <v>-5.8070898990000002</v>
       </c>
       <c r="E25">
-        <v>-2.860894075</v>
-      </c>
-      <c r="F25">
-        <v>-2.95</v>
+        <v>-5.8070898988200002</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.8000001489326678E-10</v>
       </c>
       <c r="G25" t="s">
         <v>51</v>
@@ -1700,7 +1690,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B26">
@@ -1710,10 +1700,11 @@
         <v>-2.860894075</v>
       </c>
       <c r="E26">
-        <v>-3.0708682889999999</v>
-      </c>
-      <c r="F26">
-        <v>0.21</v>
+        <v>-2.86089407507</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="0"/>
+        <v>7.000000579182597E-11</v>
       </c>
       <c r="G26" t="s">
         <v>51</v>
@@ -1722,31 +1713,32 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>-2.7362224390000001</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>-2.7362224390000001</v>
       </c>
-      <c r="E27">
-        <v>-4.4586636119999996</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1.72</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="E27" s="1">
+        <v>-3.0708682889799999</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="0"/>
+        <v>0.3346458499799998</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B28">
@@ -1756,10 +1748,11 @@
         <v>-4.4586636119999996</v>
       </c>
       <c r="E28">
-        <v>-1.082677686</v>
-      </c>
-      <c r="F28">
-        <v>-3.38</v>
+        <v>-4.4586636123999996</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="0"/>
+        <v>4.000000330961484E-10</v>
       </c>
       <c r="G28" t="s">
         <v>51</v>
@@ -1769,7 +1762,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B29">
@@ -1779,10 +1772,11 @@
         <v>-1.082677686</v>
       </c>
       <c r="E29">
-        <v>-2.283465922</v>
-      </c>
-      <c r="F29">
-        <v>1.2</v>
+        <v>-1.08267768622</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2000001820288162E-10</v>
       </c>
       <c r="G29" t="s">
         <v>51</v>
@@ -1792,7 +1786,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B30">
@@ -1802,10 +1796,11 @@
         <v>-2.283465922</v>
       </c>
       <c r="E30">
-        <v>-0.80000079099999999</v>
-      </c>
-      <c r="F30">
-        <v>-1.48</v>
+        <v>-2.28346592224</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="0"/>
+        <v>2.4000001985768904E-10</v>
       </c>
       <c r="G30" t="s">
         <v>51</v>
@@ -1815,7 +1810,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B31">
@@ -1828,10 +1823,11 @@
         <v>-0.80000079099999999</v>
       </c>
       <c r="E31">
-        <v>-3.562996686</v>
-      </c>
-      <c r="F31">
-        <v>2.76</v>
+        <v>-0.80000079086599996</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.3400003329167021E-10</v>
       </c>
       <c r="G31" t="s">
         <v>51</v>
@@ -1841,7 +1837,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B32">
@@ -1851,10 +1847,11 @@
         <v>-3.562996686</v>
       </c>
       <c r="E32">
-        <v>-3.1496081060000001</v>
-      </c>
-      <c r="F32">
-        <v>-0.41</v>
+        <v>-3.56299668622</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2000001820288162E-10</v>
       </c>
       <c r="G32" t="s">
         <v>51</v>
@@ -1864,7 +1861,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B33">
@@ -1877,10 +1874,11 @@
         <v>-3.1496081060000001</v>
       </c>
       <c r="E33">
-        <v>-3.9326369329999999</v>
-      </c>
-      <c r="F33">
-        <v>0.78</v>
+        <v>-3.1496081063000001</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="0"/>
+        <v>3.000000248221113E-10</v>
       </c>
       <c r="G33" t="s">
         <v>51</v>
@@ -1889,86 +1887,89 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>-3.920607237</v>
       </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
         <v>-3.920607237</v>
       </c>
-      <c r="E34">
-        <v>-4.0226415949999996</v>
-      </c>
-      <c r="F34">
-        <v>0.1</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="E34" s="1">
+        <v>-3.93263693342</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2029696419999958E-2</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>-4.5816967450000003</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>-0.2</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>-4.7816967449999996</v>
       </c>
-      <c r="E35">
-        <v>-1.396063805</v>
-      </c>
-      <c r="F35">
-        <v>-3.39</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="E35" s="1">
+        <v>-4.0226415954699997</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.75905514952999997</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>-1.4960638049999999</v>
       </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
         <v>-1.4960638049999999</v>
       </c>
-      <c r="E36">
-        <v>7.8739583000000002E-2</v>
-      </c>
-      <c r="F36">
-        <v>-1.57</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="E36" s="1">
+        <v>-1.3960638053100001</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" si="0"/>
+        <v>-9.9999999689999841E-2</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B37">
@@ -1981,10 +1982,11 @@
         <v>7.8739583000000002E-2</v>
       </c>
       <c r="E37">
-        <v>-3.184055963</v>
-      </c>
-      <c r="F37">
-        <v>3.26</v>
+        <v>7.8739583464599999E-2</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="0"/>
+        <v>-4.6459999736292446E-10</v>
       </c>
       <c r="G37" t="s">
         <v>51</v>
@@ -1994,7 +1996,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B38">
@@ -2007,10 +2009,11 @@
         <v>-3.184055963</v>
       </c>
       <c r="E38">
-        <v>-3.1299235400000001</v>
-      </c>
-      <c r="F38">
-        <v>-0.05</v>
+        <v>-3.1840559631900001</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9000001572067049E-10</v>
       </c>
       <c r="G38" t="s">
         <v>51</v>
@@ -2020,7 +2023,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B39">
@@ -2030,10 +2033,11 @@
         <v>-3.1299235400000001</v>
       </c>
       <c r="E39">
-        <v>-5.4626037670000001</v>
-      </c>
-      <c r="F39">
-        <v>2.33</v>
+        <v>-3.1299235399600001</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="0"/>
+        <v>-4.000000330961484E-11</v>
       </c>
       <c r="G39" t="s">
         <v>51</v>
@@ -2043,7 +2047,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B40">
@@ -2053,10 +2057,11 @@
         <v>-5.4626037670000001</v>
       </c>
       <c r="E40">
-        <v>-3.4547280979999999</v>
-      </c>
-      <c r="F40">
-        <v>-2.0099999999999998</v>
+        <v>-5.46260376673</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="0"/>
+        <v>-2.7000002233990017E-10</v>
       </c>
       <c r="G40" t="s">
         <v>51</v>
@@ -2066,7 +2071,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B41">
@@ -2078,8 +2083,12 @@
       <c r="D41">
         <v>-3.4547280979999999</v>
       </c>
-      <c r="F41">
-        <v>-3.45</v>
+      <c r="E41">
+        <v>-3.4547280980299999</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="0"/>
+        <v>3.000000248221113E-11</v>
       </c>
       <c r="G41" t="s">
         <v>51</v>
@@ -2088,15 +2097,10 @@
         <v>48</v>
       </c>
     </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="4"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
